--- a/2106B.xlsx
+++ b/2106B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aatika\Desktop\Ramazan Ppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CFBCD6-8920-4355-BAD3-80653B357096}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EA0DD0-8D80-4741-BC8A-7CE4C87D2B74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
   <si>
     <t>Roll No</t>
   </si>
@@ -462,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -500,6 +500,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,12 +537,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -816,7 +822,7 @@
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,48 +835,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -896,9 +902,9 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
@@ -907,9 +913,9 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
@@ -939,9 +945,9 @@
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
       <c r="H11">
         <f t="shared" ref="H11:H25" si="0">D11+E11+F11</f>
         <v>0</v>
@@ -954,12 +960,18 @@
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
+      <c r="D12" s="15">
+        <v>30</v>
+      </c>
+      <c r="E12" s="15">
+        <v>28</v>
+      </c>
+      <c r="F12" s="16">
+        <v>40</v>
+      </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -1096,12 +1108,18 @@
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
+      <c r="D20" s="15">
+        <v>20</v>
+      </c>
+      <c r="E20" s="15">
+        <v>25</v>
+      </c>
+      <c r="F20" s="16">
+        <v>40</v>
+      </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1111,9 +1129,9 @@
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
       <c r="H21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1126,9 +1144,9 @@
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
       <c r="H22">
         <f t="shared" si="0"/>
         <v>0</v>
